--- a/metadata/rnaseq/todo/EXT - Human Cell Atlas (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/EXT - Human Cell Atlas (RNAseq).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -655,12 +655,12 @@
     <row r="8">
       <c r="E8" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -677,12 +677,12 @@
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -699,12 +699,12 @@
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -721,12 +721,12 @@
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -743,17 +743,17 @@
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+          <t>10x Genomics; Chromium i7 Multiplex Kit N, Set A, 96 rxn; PN 1000084</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -765,12 +765,17 @@
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+          <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -782,12 +787,12 @@
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+          <t>Integrated DNA Technologies: Custom DNA Oligos</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -799,12 +804,12 @@
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+          <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -816,12 +821,12 @@
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
+          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+          <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -833,12 +838,12 @@
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+          <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -850,12 +855,12 @@
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+          <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -867,7 +872,12 @@
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -879,7 +889,7 @@
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -891,7 +901,7 @@
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+          <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -903,7 +913,7 @@
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -915,7 +925,7 @@
     <row r="23">
       <c r="E23" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -927,7 +937,7 @@
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -939,7 +949,7 @@
     <row r="25">
       <c r="E25" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -951,7 +961,7 @@
     <row r="26">
       <c r="E26" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -963,7 +973,7 @@
     <row r="27">
       <c r="E27" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -975,7 +985,7 @@
     <row r="28">
       <c r="E28" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -987,7 +997,7 @@
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -999,40 +1009,54 @@
     <row r="30">
       <c r="E30" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
         <is>
           <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
         </is>
@@ -1629,10 +1653,10 @@
       <formula1>_validation_data!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D9 D14 D19 D24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$35</formula1>
+      <formula1>_validation_data!$E$1:$E$37</formula1>
     </dataValidation>
     <dataValidation sqref="D5 D10 D15 D20 D25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$12</formula1>
+      <formula1>_validation_data!$F$1:$F$13</formula1>
     </dataValidation>
     <dataValidation sqref="D6 D11 D16 D21 D26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$H$1:$H$29</formula1>
@@ -2951,7 +2975,7 @@
       <formula1>_validation_data!$C$1:$C$2</formula1>
     </dataValidation>
     <dataValidation sqref="C11 C25 C39 C53 C67" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$18</formula1>
+      <formula1>_validation_data!$G$1:$G$19</formula1>
     </dataValidation>
     <dataValidation sqref="C14 C28 C42 C56 C70" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$I$1:$I$5</formula1>

--- a/metadata/rnaseq/todo/EXT - Human Cell Atlas (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/EXT - Human Cell Atlas (RNAseq).xlsx
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10X_scRNASeq_protocol</t>
+          <t>HiSeq 2500 Reagent kit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10X_scRNASeq_protocol</t>
+          <t>HiSeq 2500 Reagent kit</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10X_scRNASeq_protocol</t>
+          <t>HiSeq 2500 Reagent kit</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10X_scRNASeq_protocol</t>
+          <t>HiSeq 2500 Reagent kit</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10X_scRNASeq_protocol</t>
+          <t>HiSeq 2500 Reagent kit</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
